--- a/data/CS1/case30/case30_2050.xlsx
+++ b/data/CS1/case30/case30_2050.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resource-planning-no_esso-v2\data\CS1\case30\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resource-planning-v2\data\CS1\case30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE189FA6-C2A9-4B9F-9F5B-7B5A3F073004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348B081A-E3FB-416A-8410-8B70DB8EA239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="11" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21624,7 +21624,7 @@
   <dimension ref="A1:Y21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:Y21"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
